--- a/data/mylotto.xlsx
+++ b/data/mylotto.xlsx
@@ -15,12 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="325">
+  <si>
+    <r>
+      <t xml:space="preserve">Wednesday 24</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> May 2017</t>
+    </r>
+  </si>
+  <si>
+    <t>KSh 100,000,000</t>
+  </si>
+  <si>
+    <t>KSh 7,967,200</t>
+  </si>
   <si>
     <t>Saturday 20th May 2017</t>
-  </si>
-  <si>
-    <t>KSh 100,000,000</t>
   </si>
   <si>
     <t>KSh 5,913,925</t>
@@ -993,11 +1020,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1018,6 +1046,14 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1088,10 +1124,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1099,7 +1135,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,34 +1143,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>63894</v>
+        <v>88082</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1142,34 +1178,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>6</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>16339</v>
+        <v>63894</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1177,34 +1213,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>14783</v>
+        <v>16339</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1212,34 +1248,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>17120</v>
+        <v>14783</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,28 +1283,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>14151</v>
+        <v>17120</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>10</v>
@@ -1282,28 +1318,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="G6" s="1" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>13826</v>
+        <v>14151</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>12</v>
@@ -1320,31 +1356,31 @@
         <v>43</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>10485</v>
+        <v>13826</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1352,28 +1388,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>24</v>
-      </c>
       <c r="H8" s="1" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>11381</v>
+        <v>10485</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>16</v>
@@ -1387,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>9</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>11136</v>
+        <v>11381</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>18</v>
@@ -1422,34 +1458,34 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>13093</v>
+        <v>11136</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1457,34 +1493,34 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="H11" s="1" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>19492</v>
+        <v>13093</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1492,34 +1528,34 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>17510</v>
+        <v>19492</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="J13" s="1" t="n">
-        <v>12144</v>
+        <v>17510</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1562,34 +1598,34 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="J14" s="1" t="n">
-        <v>14587</v>
+        <v>12144</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1597,34 +1633,34 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>19</v>
-      </c>
       <c r="H15" s="1" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>11441</v>
+        <v>14587</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1632,34 +1668,34 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>13833</v>
+        <v>11441</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1667,34 +1703,34 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>15</v>
-      </c>
       <c r="E17" s="1" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>11544</v>
+        <v>13833</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1702,34 +1738,34 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>14179</v>
+        <v>11544</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1737,34 +1773,34 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>10893</v>
+        <v>14179</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1772,34 +1808,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>48</v>
-      </c>
       <c r="H20" s="1" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>13759</v>
+        <v>10893</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1807,34 +1843,34 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>11500</v>
+        <v>13759</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1842,34 +1878,34 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G22" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="I22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="J22" s="1" t="n">
-        <v>14705</v>
+        <v>11500</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -1877,34 +1913,34 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>11419</v>
+        <v>14705</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1912,28 +1948,28 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>13556</v>
+        <v>11419</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>48</v>
@@ -1947,34 +1983,34 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>10233</v>
+        <v>13556</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -1982,34 +2018,34 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>12825</v>
+        <v>10233</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -2017,28 +2053,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>31</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>10056</v>
+        <v>12825</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>54</v>
@@ -2052,28 +2088,28 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>39</v>
-      </c>
       <c r="H28" s="1" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>22215</v>
+        <v>10056</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>56</v>
@@ -2087,28 +2123,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="E29" s="1" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>13164</v>
+        <v>22215</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>58</v>
@@ -2122,28 +2158,28 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>15520</v>
+        <v>13164</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>60</v>
@@ -2157,28 +2193,28 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H31" s="1" t="n">
         <v>7</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>6</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>11699</v>
+        <v>15520</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>62</v>
@@ -2192,34 +2228,34 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>13836</v>
+        <v>11699</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -2227,34 +2263,34 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>11291</v>
+        <v>13836</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -2262,34 +2298,34 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F34" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G34" s="1" t="n">
-        <v>11</v>
-      </c>
       <c r="H34" s="1" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>14249</v>
+        <v>11291</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -2297,34 +2333,34 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>41</v>
-      </c>
       <c r="G35" s="1" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>11239</v>
+        <v>14249</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -2332,34 +2368,34 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>12797</v>
+        <v>11239</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -2367,34 +2403,34 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G37" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="I37" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H37" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>7</v>
-      </c>
       <c r="J37" s="1" t="n">
-        <v>11740</v>
+        <v>12797</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -2402,34 +2438,34 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E38" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="I38" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="J38" s="1" t="n">
-        <v>13469</v>
+        <v>11740</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
@@ -2437,34 +2473,34 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F39" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="H39" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="G39" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>35</v>
-      </c>
       <c r="I39" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>10599</v>
+        <v>13469</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -2472,28 +2508,28 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>9646</v>
+        <v>10599</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>80</v>
@@ -2507,34 +2543,34 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>9</v>
-      </c>
       <c r="J41" s="1" t="n">
-        <v>26112</v>
+        <v>9646</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -2542,34 +2578,34 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>20070</v>
+        <v>26112</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -2577,34 +2613,34 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>15593</v>
+        <v>20070</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -2612,34 +2648,34 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>15255</v>
+        <v>15593</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
@@ -2647,34 +2683,34 @@
         <v>1</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>20678</v>
+        <v>15255</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
@@ -2682,34 +2718,34 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D46" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="G46" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="E46" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>9</v>
-      </c>
       <c r="H46" s="1" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>17365</v>
+        <v>20678</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
@@ -2717,28 +2753,28 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G47" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H47" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="H47" s="1" t="n">
-        <v>32</v>
-      </c>
       <c r="I47" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>13179</v>
+        <v>17365</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>94</v>
@@ -2752,28 +2788,28 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>14478</v>
+        <v>13179</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>96</v>
@@ -2787,34 +2823,34 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>12146</v>
+        <v>14478</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -2822,34 +2858,34 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>14532</v>
+        <v>12146</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -2857,34 +2893,34 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F51" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E51" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>40</v>
-      </c>
       <c r="G51" s="1" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>11172</v>
+        <v>14532</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -2892,34 +2928,34 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>12040</v>
+        <v>11172</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -2927,34 +2963,34 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>10368</v>
+        <v>12040</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
@@ -2962,34 +2998,34 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G54" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D54" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <v>23</v>
-      </c>
       <c r="H54" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>12595</v>
+        <v>10368</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
@@ -2997,28 +3033,28 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D55" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="E55" s="1" t="n">
-        <v>21</v>
-      </c>
       <c r="F55" s="1" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>10307</v>
+        <v>12595</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>110</v>
@@ -3032,28 +3068,28 @@
         <v>1</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>12758</v>
+        <v>10307</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>112</v>
@@ -3067,34 +3103,34 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>10919</v>
+        <v>12758</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>115</v>
       </c>
@@ -3102,34 +3138,34 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>10071</v>
+        <v>10919</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
@@ -3137,34 +3173,34 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>9257</v>
+        <v>10071</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>119</v>
       </c>
@@ -3175,25 +3211,25 @@
         <v>4</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>11428</v>
+        <v>9257</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>120</v>
@@ -3207,28 +3243,28 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="G61" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="E61" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>26</v>
-      </c>
       <c r="H61" s="1" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>11044</v>
+        <v>11428</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>122</v>
@@ -3242,34 +3278,34 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>20921</v>
+        <v>11044</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
@@ -3277,34 +3313,34 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E63" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="H63" s="1" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>13496</v>
+        <v>20921</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -3312,34 +3348,34 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>15358</v>
+        <v>13496</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>129</v>
       </c>
@@ -3347,34 +3383,34 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E65" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F65" s="1" t="n">
-        <v>48</v>
-      </c>
       <c r="G65" s="1" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>12622</v>
+        <v>15358</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
@@ -3382,34 +3418,34 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>13084</v>
+        <v>12622</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>133</v>
       </c>
@@ -3417,34 +3453,34 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>8</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>11912</v>
+        <v>13084</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -3452,34 +3488,34 @@
         <v>1</v>
       </c>
       <c r="C68" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D68" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D68" s="1" t="n">
-        <v>12</v>
-      </c>
       <c r="E68" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H68" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="F68" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="H68" s="1" t="n">
-        <v>44</v>
-      </c>
       <c r="I68" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>13741</v>
+        <v>11912</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -3487,34 +3523,34 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E69" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="H69" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="F69" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="H69" s="1" t="n">
-        <v>7</v>
-      </c>
       <c r="I69" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>9657</v>
+        <v>13741</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
@@ -3522,34 +3558,34 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>10331</v>
+        <v>9657</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>141</v>
       </c>
@@ -3557,34 +3593,34 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F71" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D71" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>48</v>
-      </c>
       <c r="G71" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>9819</v>
+        <v>10331</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>143</v>
       </c>
@@ -3592,34 +3628,34 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>10233</v>
+        <v>9819</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
@@ -3627,28 +3663,28 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D73" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="G73" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E73" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F73" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="G73" s="1" t="n">
-        <v>39</v>
-      </c>
       <c r="H73" s="1" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>9319</v>
+        <v>10233</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>146</v>
@@ -3662,28 +3698,28 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>12245</v>
+        <v>9319</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>148</v>
@@ -3697,28 +3733,28 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>12901</v>
+        <v>12245</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>150</v>
@@ -3732,34 +3768,34 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F76" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G76" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="G76" s="1" t="n">
-        <v>12</v>
-      </c>
       <c r="H76" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>10915</v>
+        <v>12901</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>153</v>
       </c>
@@ -3767,34 +3803,34 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D77" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="F77" s="1" t="n">
         <v>19</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="F77" s="1" t="n">
-        <v>17</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>12</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>8540</v>
+        <v>10915</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>155</v>
       </c>
@@ -3802,34 +3838,34 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>11555</v>
+        <v>8540</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>157</v>
       </c>
@@ -3837,34 +3873,34 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>18465</v>
+        <v>11555</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>159</v>
       </c>
@@ -3872,34 +3908,34 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>15831</v>
+        <v>18465</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>161</v>
       </c>
@@ -3907,34 +3943,34 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D81" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G81" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E81" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="F81" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="G81" s="1" t="n">
+      <c r="H81" s="1" t="n">
         <v>42</v>
-      </c>
-      <c r="H81" s="1" t="n">
-        <v>38</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>13022</v>
+        <v>15831</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>163</v>
       </c>
@@ -3942,34 +3978,34 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>11856</v>
+        <v>13022</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>165</v>
       </c>
@@ -3977,34 +4013,34 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G83" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H83" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I83" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="J83" s="1" t="n">
-        <v>9633</v>
+        <v>11856</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>167</v>
       </c>
@@ -4012,34 +4048,34 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>12140</v>
+        <v>9633</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>169</v>
       </c>
@@ -4047,34 +4083,34 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>9829</v>
+        <v>12140</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>171</v>
       </c>
@@ -4082,34 +4118,34 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>10957</v>
+        <v>9829</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>173</v>
       </c>
@@ -4117,34 +4153,34 @@
         <v>1</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>10218</v>
+        <v>10957</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>175</v>
       </c>
@@ -4152,34 +4188,34 @@
         <v>1</v>
       </c>
       <c r="C88" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="H88" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D88" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="F88" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G88" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="H88" s="1" t="n">
-        <v>9</v>
-      </c>
       <c r="I88" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>12717</v>
+        <v>10218</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>177</v>
       </c>
@@ -4187,34 +4223,34 @@
         <v>1</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>10398</v>
+        <v>12717</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>179</v>
       </c>
@@ -4222,34 +4258,34 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>12847</v>
+        <v>10398</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>181</v>
       </c>
@@ -4257,28 +4293,28 @@
         <v>1</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>10</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>12503</v>
+        <v>12847</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>182</v>
@@ -4292,28 +4328,28 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>15219</v>
+        <v>12503</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>184</v>
@@ -4327,34 +4363,34 @@
         <v>1</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J93" s="1" t="n">
-        <v>12431</v>
+        <v>15219</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>187</v>
       </c>
@@ -4362,34 +4398,34 @@
         <v>1</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J94" s="1" t="n">
-        <v>14431</v>
+        <v>12431</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>189</v>
       </c>
@@ -4397,34 +4433,34 @@
         <v>1</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>13046</v>
+        <v>14431</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>191</v>
       </c>
@@ -4432,34 +4468,34 @@
         <v>1</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>15223</v>
+        <v>13046</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>193</v>
       </c>
@@ -4467,34 +4503,34 @@
         <v>1</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F97" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="H97" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="G97" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="H97" s="1" t="n">
-        <v>25</v>
-      </c>
       <c r="I97" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J97" s="1" t="n">
-        <v>13430</v>
+        <v>15223</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>195</v>
       </c>
@@ -4502,34 +4538,34 @@
         <v>1</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J98" s="1" t="n">
-        <v>12172</v>
+        <v>13430</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>197</v>
       </c>
@@ -4537,28 +4573,28 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J99" s="1" t="n">
-        <v>10116</v>
+        <v>12172</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>198</v>
@@ -4572,28 +4608,28 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E100" s="1" t="n">
         <v>14</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J100" s="1" t="n">
-        <v>13485</v>
+        <v>10116</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>200</v>
@@ -4607,28 +4643,28 @@
         <v>1</v>
       </c>
       <c r="C101" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="I101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D101" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F101" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="G101" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="H101" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I101" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="J101" s="1" t="n">
-        <v>12293</v>
+        <v>13485</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>202</v>
@@ -4642,28 +4678,28 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F102" s="1" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H102" s="1" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J102" s="1" t="n">
-        <v>20113</v>
+        <v>12293</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>204</v>
@@ -4677,34 +4713,34 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F103" s="1" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G103" s="1" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H103" s="1" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>11613</v>
+        <v>20113</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>207</v>
       </c>
@@ -4712,34 +4748,34 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G104" s="1" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H104" s="1" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J104" s="1" t="n">
-        <v>12580</v>
+        <v>11613</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>209</v>
       </c>
@@ -4747,34 +4783,34 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E105" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="G105" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="F105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G105" s="1" t="n">
-        <v>13</v>
-      </c>
       <c r="H105" s="1" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" s="1" t="n">
-        <v>9764</v>
+        <v>12580</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>211</v>
       </c>
@@ -4782,34 +4818,34 @@
         <v>1</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F106" s="1" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G106" s="1" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>35</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J106" s="1" t="n">
-        <v>13385</v>
+        <v>9764</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>213</v>
       </c>
@@ -4817,34 +4853,34 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F107" s="1" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H107" s="1" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J107" s="1" t="n">
-        <v>9475</v>
+        <v>13385</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>215</v>
       </c>
@@ -4852,34 +4888,34 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>11392</v>
+        <v>9475</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>217</v>
       </c>
@@ -4887,28 +4923,28 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D109" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F109" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="I109" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E109" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F109" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="G109" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="H109" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="I109" s="1" t="n">
-        <v>7</v>
-      </c>
       <c r="J109" s="1" t="n">
-        <v>10967</v>
+        <v>11392</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>218</v>
@@ -4922,28 +4958,28 @@
         <v>1</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D110" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="G110" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="E110" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="F110" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="G110" s="1" t="n">
-        <v>45</v>
-      </c>
       <c r="H110" s="1" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J110" s="1" t="n">
-        <v>11714</v>
+        <v>10967</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>220</v>
@@ -4957,34 +4993,34 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D111" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="F111" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E111" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="F111" s="1" t="n">
-        <v>40</v>
-      </c>
       <c r="G111" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H111" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I111" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J111" s="1" t="n">
-        <v>11139</v>
+        <v>11714</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>223</v>
       </c>
@@ -4992,34 +5028,34 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F112" s="1" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G112" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H112" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I112" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J112" s="1" t="n">
-        <v>11593</v>
+        <v>11139</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>225</v>
       </c>
@@ -5027,34 +5063,34 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F113" s="1" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G113" s="1" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H113" s="1" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I113" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J113" s="1" t="n">
-        <v>10833</v>
+        <v>11593</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>227</v>
       </c>
@@ -5062,34 +5098,34 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F114" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D114" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="E114" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="F114" s="1" t="n">
-        <v>43</v>
-      </c>
       <c r="G114" s="1" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H114" s="1" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I114" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J114" s="1" t="n">
-        <v>11425</v>
+        <v>10833</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>229</v>
       </c>
@@ -5097,34 +5133,34 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F115" s="1" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G115" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H115" s="1" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I115" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" s="1" t="n">
-        <v>10190</v>
+        <v>11425</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>231</v>
       </c>
@@ -5132,34 +5168,34 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D116" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F116" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="H116" s="1" t="n">
         <v>43</v>
-      </c>
-      <c r="E116" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F116" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G116" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="H116" s="1" t="n">
-        <v>9</v>
       </c>
       <c r="I116" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J116" s="1" t="n">
-        <v>12451</v>
+        <v>10190</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>233</v>
       </c>
@@ -5167,34 +5203,34 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E117" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F117" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F117" s="1" t="n">
-        <v>23</v>
-      </c>
       <c r="G117" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H117" s="1" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I117" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J117" s="1" t="n">
-        <v>11592</v>
+        <v>12451</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>235</v>
       </c>
@@ -5202,34 +5238,34 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F118" s="1" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G118" s="1" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H118" s="1" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="I118" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J118" s="1" t="n">
-        <v>13448</v>
+        <v>11592</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>237</v>
       </c>
@@ -5237,34 +5273,34 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="D119" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D119" s="1" t="n">
-        <v>22</v>
-      </c>
       <c r="E119" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F119" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G119" s="1" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H119" s="1" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I119" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J119" s="1" t="n">
-        <v>9700</v>
+        <v>13448</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>239</v>
       </c>
@@ -5272,34 +5308,34 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="F120" s="1" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G120" s="1" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H120" s="1" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I120" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J120" s="1" t="n">
-        <v>8192</v>
+        <v>9700</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>241</v>
       </c>
@@ -5307,34 +5343,34 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F121" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G121" s="1" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H121" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I121" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I121" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="J121" s="1" t="n">
-        <v>20100</v>
+        <v>8192</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>243</v>
       </c>
@@ -5342,34 +5378,34 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F122" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G122" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H122" s="1" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J122" s="1" t="n">
-        <v>14416</v>
+        <v>20100</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>245</v>
       </c>
@@ -5377,34 +5413,34 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F123" s="1" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G123" s="1" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H123" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I123" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J123" s="1" t="n">
-        <v>12023</v>
+        <v>14416</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>247</v>
       </c>
@@ -5412,34 +5448,34 @@
         <v>1</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F124" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G124" s="1" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H124" s="1" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I124" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J124" s="1" t="n">
-        <v>11664</v>
+        <v>12023</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>249</v>
       </c>
@@ -5447,34 +5483,34 @@
         <v>1</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F125" s="1" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G125" s="1" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H125" s="1" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I125" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J125" s="1" t="n">
-        <v>11581</v>
+        <v>11664</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>251</v>
       </c>
@@ -5482,34 +5518,34 @@
         <v>1</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F126" s="1" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G126" s="1" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H126" s="1" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I126" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J126" s="1" t="n">
-        <v>14373</v>
+        <v>11581</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>253</v>
       </c>
@@ -5517,34 +5553,34 @@
         <v>1</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="F127" s="1" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G127" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H127" s="1" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I127" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J127" s="1" t="n">
-        <v>10022</v>
+        <v>14373</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>255</v>
       </c>
@@ -5552,28 +5588,28 @@
         <v>1</v>
       </c>
       <c r="C128" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F128" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D128" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="E128" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="F128" s="1" t="n">
-        <v>10</v>
-      </c>
       <c r="G128" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H128" s="1" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I128" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J128" s="1" t="n">
-        <v>9747</v>
+        <v>10022</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>256</v>
@@ -5587,28 +5623,28 @@
         <v>1</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F129" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G129" s="1" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H129" s="1" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I129" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J129" s="1" t="n">
-        <v>9215</v>
+        <v>9747</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>258</v>
@@ -5622,28 +5658,28 @@
         <v>1</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F130" s="1" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G130" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H130" s="1" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J130" s="1" t="n">
-        <v>9675</v>
+        <v>9215</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>260</v>
@@ -5657,28 +5693,28 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E131" s="1" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F131" s="1" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G131" s="1" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H131" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I131" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J131" s="1" t="n">
-        <v>7352</v>
+        <v>9675</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>262</v>
@@ -5692,28 +5728,28 @@
         <v>1</v>
       </c>
       <c r="C132" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="G132" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H132" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D132" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="E132" s="1" t="n">
+      <c r="I132" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F132" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="G132" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="H132" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I132" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="J132" s="1" t="n">
-        <v>8500</v>
+        <v>7352</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>264</v>
@@ -5727,28 +5763,28 @@
         <v>1</v>
       </c>
       <c r="C133" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F133" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="D133" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="E133" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="F133" s="1" t="n">
-        <v>25</v>
-      </c>
       <c r="G133" s="1" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H133" s="1" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" s="1" t="n">
-        <v>10191</v>
+        <v>8500</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>266</v>
@@ -5762,28 +5798,28 @@
         <v>1</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F134" s="1" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G134" s="1" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H134" s="1" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I134" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J134" s="1" t="n">
-        <v>9143</v>
+        <v>10191</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>268</v>
@@ -5797,28 +5833,28 @@
         <v>1</v>
       </c>
       <c r="C135" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="F135" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D135" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="E135" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F135" s="1" t="n">
-        <v>12</v>
-      </c>
       <c r="G135" s="1" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H135" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I135" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" s="1" t="n">
-        <v>8364</v>
+        <v>9143</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>270</v>
@@ -5832,34 +5868,34 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F136" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H136" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="G136" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="H136" s="1" t="n">
-        <v>16</v>
       </c>
       <c r="I136" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J136" s="1" t="n">
-        <v>8625</v>
+        <v>8364</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>273</v>
       </c>
@@ -5870,31 +5906,31 @@
         <v>24</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F137" s="1" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H137" s="1" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I137" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J137" s="1" t="n">
-        <v>7836</v>
+        <v>8625</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>275</v>
       </c>
@@ -5902,34 +5938,34 @@
         <v>1</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F138" s="1" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G138" s="1" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H138" s="1" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J138" s="1" t="n">
-        <v>9266</v>
+        <v>7836</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>277</v>
       </c>
@@ -5937,34 +5973,34 @@
         <v>1</v>
       </c>
       <c r="C139" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D139" s="1" t="n">
+      <c r="E139" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F139" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E139" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="F139" s="1" t="n">
-        <v>16</v>
-      </c>
       <c r="G139" s="1" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="H139" s="1" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J139" s="1" t="n">
-        <v>8612</v>
+        <v>9266</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>279</v>
       </c>
@@ -5972,34 +6008,34 @@
         <v>1</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F140" s="1" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G140" s="1" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H140" s="1" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" s="1" t="n">
-        <v>10414</v>
+        <v>8612</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>281</v>
       </c>
@@ -6007,34 +6043,34 @@
         <v>1</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F141" s="1" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G141" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H141" s="1" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>9047</v>
+        <v>10414</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>283</v>
       </c>
@@ -6042,34 +6078,34 @@
         <v>1</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F142" s="1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G142" s="1" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H142" s="1" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J142" s="1" t="n">
-        <v>10008</v>
+        <v>9047</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>285</v>
       </c>
@@ -6077,34 +6113,34 @@
         <v>1</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F143" s="1" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G143" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H143" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I143" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H143" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="I143" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="J143" s="1" t="n">
-        <v>8745</v>
+        <v>10008</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>287</v>
       </c>
@@ -6112,34 +6148,34 @@
         <v>1</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F144" s="1" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H144" s="1" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>8395</v>
+        <v>8745</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>289</v>
       </c>
@@ -6150,31 +6186,31 @@
         <v>19</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E145" s="1" t="n">
         <v>26</v>
       </c>
       <c r="F145" s="1" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G145" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H145" s="1" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J145" s="1" t="n">
-        <v>7330</v>
+        <v>8395</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>291</v>
       </c>
@@ -6182,34 +6218,34 @@
         <v>1</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F146" s="1" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="H146" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I146" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>10154</v>
+        <v>7330</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>293</v>
       </c>
@@ -6217,34 +6253,34 @@
         <v>1</v>
       </c>
       <c r="C147" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G147" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="H147" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D147" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E147" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="F147" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="G147" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="H147" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="I147" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J147" s="1" t="n">
-        <v>6932</v>
+        <v>10154</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>295</v>
       </c>
@@ -6252,34 +6288,34 @@
         <v>1</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D148" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F148" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="G148" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H148" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E148" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="F148" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="G148" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="H148" s="1" t="n">
-        <v>46</v>
-      </c>
       <c r="I148" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J148" s="1" t="n">
-        <v>8516</v>
+        <v>6932</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>297</v>
       </c>
@@ -6287,34 +6323,34 @@
         <v>1</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F149" s="1" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H149" s="1" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J149" s="1" t="n">
-        <v>7795</v>
+        <v>8516</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>299</v>
       </c>
@@ -6322,34 +6358,34 @@
         <v>1</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F150" s="1" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H150" s="1" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J150" s="1" t="n">
-        <v>7173</v>
+        <v>7795</v>
       </c>
       <c r="K150" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>301</v>
       </c>
@@ -6357,28 +6393,28 @@
         <v>1</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F151" s="1" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>20</v>
       </c>
       <c r="H151" s="1" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J151" s="1" t="n">
-        <v>7147</v>
+        <v>7173</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>302</v>
@@ -6392,28 +6428,28 @@
         <v>1</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D152" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E152" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F152" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E152" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F152" s="1" t="n">
-        <v>24</v>
-      </c>
       <c r="G152" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H152" s="1" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J152" s="1" t="n">
-        <v>8051</v>
+        <v>7147</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>304</v>
@@ -6427,28 +6463,28 @@
         <v>1</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>6565</v>
+        <v>8051</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>306</v>
@@ -6462,28 +6498,28 @@
         <v>1</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>5943</v>
+        <v>6565</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>308</v>
@@ -6497,34 +6533,34 @@
         <v>1</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I155" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>4727</v>
+        <v>5943</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>311</v>
       </c>
@@ -6532,34 +6568,34 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F156" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G156" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G156" s="1" t="n">
-        <v>22</v>
-      </c>
       <c r="H156" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>5236</v>
+        <v>4727</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>313</v>
       </c>
@@ -6567,34 +6603,34 @@
         <v>1</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F157" s="1" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H157" s="1" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J157" s="1" t="n">
-        <v>4060</v>
+        <v>5236</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>315</v>
       </c>
@@ -6602,34 +6638,34 @@
         <v>1</v>
       </c>
       <c r="C158" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F158" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D158" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="E158" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="F158" s="1" t="n">
+      <c r="G158" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="I158" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G158" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="H158" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="I158" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="J158" s="1" t="n">
-        <v>3582</v>
+        <v>4060</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>317</v>
       </c>
@@ -6637,34 +6673,34 @@
         <v>1</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D159" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F159" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E159" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="F159" s="1" t="n">
-        <v>40</v>
-      </c>
       <c r="G159" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H159" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I159" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J159" s="1" t="n">
-        <v>3565</v>
+        <v>3582</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>319</v>
       </c>
@@ -6672,34 +6708,34 @@
         <v>1</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E160" s="1" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F160" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G160" s="1" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H160" s="1" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I160" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J160" s="1" t="n">
-        <v>2733</v>
+        <v>3565</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>321</v>
       </c>
@@ -6707,31 +6743,66 @@
         <v>1</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E161" s="1" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F161" s="1" t="n">
         <v>30</v>
       </c>
       <c r="G161" s="1" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H161" s="1" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I161" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J161" s="1" t="n">
-        <v>2180</v>
+        <v>2733</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D162" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="E162" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F162" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G162" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="H162" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I162" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J162" s="1" t="n">
+        <v>2180</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
